--- a/test_doublekey.xlsx
+++ b/test_doublekey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karry\OneDrive\工具制作\Excel2Lua\Excel2Lua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643D073D-E229-4429-91CF-A8AEC3A3AF3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E27838-2718-41E4-993A-97007B611B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="2" xr2:uid="{E2587DB0-0760-4884-B40B-FE2058B571C3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{E2587DB0-0760-4884-B40B-FE2058B571C3}"/>
   </bookViews>
   <sheets>
     <sheet name="_说明" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,26 +91,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s_StartTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>持续时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n_LastTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[s]Icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[n]Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[t]Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +120,22 @@
   </si>
   <si>
     <t>[ikey]Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n]1=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ikey]Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[s]StartTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n]LastTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,8 +555,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -565,7 +569,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2">
         <v>35129</v>
@@ -573,10 +577,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -585,6 +589,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -593,8 +598,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -625,23 +630,23 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -680,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -703,7 +708,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -717,7 +722,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -737,7 +742,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -751,7 +756,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/test_doublekey.xlsx
+++ b/test_doublekey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karry\OneDrive\工具制作\Excel2Lua\Excel2Lua\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\个人文件\OneDrive\工具制作\Excel2Lua\Excel2Lua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E27838-2718-41E4-993A-97007B611B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{32E27838-2718-41E4-993A-97007B611B4C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{163D5237-52AB-46E1-A3C1-F5B270FD6062}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{E2587DB0-0760-4884-B40B-FE2058B571C3}"/>
+    <workbookView xWindow="-28920" yWindow="-240" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{E2587DB0-0760-4884-B40B-FE2058B571C3}"/>
   </bookViews>
   <sheets>
     <sheet name="_说明" sheetId="3" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,7 +543,7 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -556,15 +556,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -575,7 +575,7 @@
         <v>35129</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -602,12 +602,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="14.265625" customWidth="1"/>
+    <col min="1" max="7" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -649,7 +649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -670,7 +670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -711,7 +711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D6">
         <v>2</v>
       </c>
@@ -725,7 +725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -745,7 +745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>2</v>
       </c>

--- a/test_doublekey.xlsx
+++ b/test_doublekey.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\个人文件\OneDrive\工具制作\Excel2Lua\Excel2Lua\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karry\OneDrive\工具制作\Excel2Lua\Excel2Lua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{32E27838-2718-41E4-993A-97007B611B4C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{163D5237-52AB-46E1-A3C1-F5B270FD6062}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{32E27838-2718-41E4-993A-97007B611B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BA66162B-2547-48D8-8F80-A8DC7AB7EB46}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-240" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{E2587DB0-0760-4884-B40B-FE2058B571C3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="3" xr2:uid="{E2587DB0-0760-4884-B40B-FE2058B571C3}"/>
   </bookViews>
   <sheets>
     <sheet name="_说明" sheetId="3" r:id="rId1"/>
-    <sheet name="@dfasdf" sheetId="2" r:id="rId2"/>
-    <sheet name="test" sheetId="1" r:id="rId3"/>
+    <sheet name="@config" sheetId="2" r:id="rId2"/>
+    <sheet name="test_类型1" sheetId="1" r:id="rId3"/>
+    <sheet name="test_类型2 " sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,14 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[d]Var</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[an3]Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0;0;0|0;0;0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +129,38 @@
   </si>
   <si>
     <t>[n]LastTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[an3]array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[d]Params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +568,7 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -553,36 +578,56 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD40EE43-1BF1-40D4-9053-1DE82EB6DAB3}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="2" max="3" width="12.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
         <v>35129</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
         <v>100</v>
       </c>
     </row>
@@ -599,15 +644,15 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="14.25" customWidth="1"/>
+    <col min="1" max="7" width="14.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -628,28 +673,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -658,10 +703,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -670,7 +715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -685,78 +730,262 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
         <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
         <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
         <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F7036B-93E6-4CAD-AF45-C7A4EF8C1CFE}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="7" width="14.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
